--- a/database/industries/folad/fasazan/income/quarterly/rial.xlsx
+++ b/database/industries/folad/fasazan/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fasazan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fasazan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE6249-A2A8-4065-BF75-BB94182D056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF48C5-6D52-4FC5-98EC-108A997E6ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-29</t>
+  </si>
+  <si>
+    <t>1399-03-12 (10)</t>
+  </si>
+  <si>
+    <t>1399-05-01 (5)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1399-11-08 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-03 (10)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (3)</t>
+  </si>
+  <si>
+    <t>1400-09-06 (5)</t>
+  </si>
+  <si>
     <t>1400-10-30 (3)</t>
   </si>
   <si>
@@ -88,16 +142,19 @@
     <t>1402-03-07 (12)</t>
   </si>
   <si>
-    <t>1401-05-26 (2)</t>
-  </si>
-  <si>
-    <t>1401-09-06 (3)</t>
+    <t>1402-04-29 (3)</t>
+  </si>
+  <si>
+    <t>1402-07-29 (4)</t>
   </si>
   <si>
     <t>1401-10-26</t>
   </si>
   <si>
-    <t>1402-03-07 (2)</t>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,9 +686,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +706,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +732,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +758,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +782,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +808,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +834,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +858,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +904,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,154 +1014,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1028222</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1064697</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1343677</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1184415</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1300144</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1817282</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2200136</v>
+      </c>
+      <c r="K11" s="13">
+        <v>3146379</v>
+      </c>
+      <c r="L11" s="13">
         <v>4169351</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>4383362</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>5935362</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>4794658</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>7175547</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>7439558</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>6544803</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>6812826</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>9366836</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>12004329</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>14438739</v>
+      </c>
+      <c r="W11" s="13">
+        <v>11963511</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-946322</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-951609</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1092728</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1103862</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1198017</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-1556625</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-1893402</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-2553167</v>
+      </c>
+      <c r="L12" s="11">
         <v>-3513982</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-3888885</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-5218997</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-4419086</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-6383072</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-7130702</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-5962755</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-6830084</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-8318806</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-9411785</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-12434732</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-10285106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>81900</v>
+      </c>
+      <c r="E13" s="15">
+        <v>113088</v>
+      </c>
+      <c r="F13" s="15">
+        <v>250949</v>
+      </c>
+      <c r="G13" s="15">
+        <v>80553</v>
+      </c>
+      <c r="H13" s="15">
+        <v>102127</v>
+      </c>
+      <c r="I13" s="15">
+        <v>260657</v>
+      </c>
+      <c r="J13" s="15">
+        <v>306734</v>
+      </c>
+      <c r="K13" s="15">
+        <v>593212</v>
+      </c>
+      <c r="L13" s="15">
         <v>655369</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>494477</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>716365</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>375572</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>792475</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>308856</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>582048</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>-17258</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>1048030</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>2592544</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>2004007</v>
+      </c>
+      <c r="W13" s="15">
+        <v>1678405</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-12713</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-25486</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-20578</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-24175</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-25461</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-40835</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-25174</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-32941</v>
+      </c>
+      <c r="L14" s="11">
         <v>-99732</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-196024</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-203189</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-169856</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-230831</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-222321</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-166965</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-215627</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-355280</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-430839</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-388202</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-250861</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1002,262 +1324,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="E16" s="11">
+        <v>-1222</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-782</v>
+      </c>
+      <c r="H16" s="11">
+        <v>782</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-1179</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>15016</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-6509</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>4792</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>-13847</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>-8472</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>-22425</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>56084</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>-5754</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>1990</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>-6780</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-66542</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>69032</v>
+      </c>
+      <c r="E17" s="15">
+        <v>86380</v>
+      </c>
+      <c r="F17" s="15">
+        <v>230371</v>
+      </c>
+      <c r="G17" s="15">
+        <v>55596</v>
+      </c>
+      <c r="H17" s="15">
+        <v>77448</v>
+      </c>
+      <c r="I17" s="15">
+        <v>218643</v>
+      </c>
+      <c r="J17" s="15">
+        <v>281560</v>
+      </c>
+      <c r="K17" s="15">
+        <v>560271</v>
+      </c>
+      <c r="L17" s="15">
         <v>555637</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>313469</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>506667</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>210508</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>547797</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>78063</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>392658</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>-176801</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>686996</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>2163695</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>1609025</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1361002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-4696</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-9056</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-8086</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-6503</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-6863</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-14079</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-22900</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-20724</v>
+      </c>
+      <c r="L18" s="11">
         <v>-23752</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-42516</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-72763</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-93756</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-103038</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-46384</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-178200</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-45385</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-186426</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-221696</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-274070</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-307657</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-10307</v>
+      </c>
+      <c r="E19" s="13">
+        <v>11238</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-383</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-5600</v>
+      </c>
+      <c r="H19" s="13">
+        <v>12849</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9018</v>
+      </c>
+      <c r="J19" s="13">
+        <v>6291</v>
+      </c>
+      <c r="K19" s="13">
+        <v>730</v>
+      </c>
+      <c r="L19" s="13">
         <v>42090</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>-53153</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>-1665</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>23235</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>9066</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>16154</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>19216</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>11657</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>32881</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>124370</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>77726</v>
+      </c>
+      <c r="W19" s="13">
+        <v>-22801</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>54029</v>
+      </c>
+      <c r="E20" s="17">
+        <v>88562</v>
+      </c>
+      <c r="F20" s="17">
+        <v>221902</v>
+      </c>
+      <c r="G20" s="17">
+        <v>43493</v>
+      </c>
+      <c r="H20" s="17">
+        <v>83434</v>
+      </c>
+      <c r="I20" s="17">
+        <v>213582</v>
+      </c>
+      <c r="J20" s="17">
+        <v>264951</v>
+      </c>
+      <c r="K20" s="17">
+        <v>540277</v>
+      </c>
+      <c r="L20" s="17">
         <v>573975</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>217800</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>432239</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>139987</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>453825</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>47833</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>233674</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>-210529</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>533451</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>2066369</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>1412681</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1030544</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-11999</v>
+      </c>
+      <c r="E21" s="13">
+        <v>5878</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-44301</v>
+      </c>
+      <c r="G21" s="13">
+        <v>8375</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-10437</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3937</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-25036</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-68320</v>
+      </c>
+      <c r="L21" s="13">
         <v>-83149</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>67419</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-4987</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-51177</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-21816</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-1889</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-34684</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>34684</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-92452</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-322191</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-190616</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-151315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>42030</v>
+      </c>
+      <c r="E22" s="17">
+        <v>94440</v>
+      </c>
+      <c r="F22" s="17">
+        <v>177601</v>
+      </c>
+      <c r="G22" s="17">
+        <v>51868</v>
+      </c>
+      <c r="H22" s="17">
+        <v>72997</v>
+      </c>
+      <c r="I22" s="17">
+        <v>217519</v>
+      </c>
+      <c r="J22" s="17">
+        <v>239915</v>
+      </c>
+      <c r="K22" s="17">
+        <v>471957</v>
+      </c>
+      <c r="L22" s="17">
         <v>490826</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>285219</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>427252</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>88810</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>432009</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>45944</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>198990</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>-175845</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>440999</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>1744178</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>1222065</v>
+      </c>
+      <c r="W22" s="17">
+        <v>879229</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,152 +1852,302 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>42030</v>
+      </c>
+      <c r="E24" s="17">
+        <v>94440</v>
+      </c>
+      <c r="F24" s="17">
+        <v>177601</v>
+      </c>
+      <c r="G24" s="17">
+        <v>51868</v>
+      </c>
+      <c r="H24" s="17">
+        <v>72997</v>
+      </c>
+      <c r="I24" s="17">
+        <v>217519</v>
+      </c>
+      <c r="J24" s="17">
+        <v>239915</v>
+      </c>
+      <c r="K24" s="17">
+        <v>471957</v>
+      </c>
+      <c r="L24" s="17">
         <v>490826</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>285219</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>427252</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>88810</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>432009</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>45944</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>198990</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>-175845</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>440999</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>1744178</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>1222065</v>
+      </c>
+      <c r="W24" s="17">
+        <v>879229</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>112</v>
+      </c>
+      <c r="E25" s="13">
+        <v>157</v>
+      </c>
+      <c r="F25" s="13">
+        <v>296</v>
+      </c>
+      <c r="G25" s="13">
+        <v>86</v>
+      </c>
+      <c r="H25" s="13">
+        <v>122</v>
+      </c>
+      <c r="I25" s="13">
+        <v>363</v>
+      </c>
+      <c r="J25" s="13">
+        <v>400</v>
+      </c>
+      <c r="K25" s="13">
+        <v>787</v>
+      </c>
+      <c r="L25" s="13">
         <v>818</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>475</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>142</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>30</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>144</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>15</v>
       </c>
-      <c r="J25" s="13">
+      <c r="R25" s="13">
         <v>66</v>
       </c>
-      <c r="K25" s="13">
+      <c r="S25" s="13">
         <v>-59</v>
       </c>
-      <c r="L25" s="13">
+      <c r="T25" s="13">
         <v>147</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>581</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="13">
+        <v>407</v>
+      </c>
+      <c r="W25" s="13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>600000</v>
+        <v>375000</v>
       </c>
       <c r="E26" s="11">
         <v>600000</v>
       </c>
       <c r="F26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>600000</v>
+      </c>
+      <c r="N26" s="11">
         <v>3000000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="O26" s="11">
         <v>3000000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="P26" s="11">
         <v>3000000</v>
       </c>
-      <c r="I26" s="11">
+      <c r="Q26" s="11">
         <v>3000000</v>
       </c>
-      <c r="J26" s="11">
+      <c r="R26" s="11">
         <v>3000000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="S26" s="11">
         <v>3000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="T26" s="11">
         <v>3000000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="U26" s="11">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>14</v>
+      </c>
+      <c r="E27" s="13">
+        <v>31</v>
+      </c>
+      <c r="F27" s="13">
+        <v>59</v>
+      </c>
+      <c r="G27" s="13">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13">
+        <v>24</v>
+      </c>
+      <c r="I27" s="13">
+        <v>73</v>
+      </c>
+      <c r="J27" s="13">
+        <v>80</v>
+      </c>
+      <c r="K27" s="13">
+        <v>157</v>
+      </c>
+      <c r="L27" s="13">
         <v>164</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>95</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>142</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>30</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>144</v>
       </c>
-      <c r="I27" s="13">
+      <c r="Q27" s="13">
         <v>15</v>
       </c>
-      <c r="J27" s="13">
+      <c r="R27" s="13">
         <v>66</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>-59</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>147</v>
       </c>
-      <c r="M27" s="13">
+      <c r="U27" s="13">
         <v>581</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="13">
+        <v>407</v>
+      </c>
+      <c r="W27" s="13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2160,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
